--- a/tables/2022-01/sup_table_overview_Jan.xlsx
+++ b/tables/2022-01/sup_table_overview_Jan.xlsx
@@ -203,49 +203,49 @@
     <t>TI</t>
   </si>
   <si>
-    <t>1.03 (0.90-1.15)</t>
+    <t>1.03 (0.95-1.11)</t>
   </si>
   <si>
     <t>1.01 (0.92-1.10)</t>
   </si>
   <si>
-    <t>1.01 (0.94-1.08)</t>
-  </si>
-  <si>
-    <t>1.09 (0.97-1.19)</t>
+    <t>1.01 (0.91-1.11)</t>
+  </si>
+  <si>
+    <t>1.09 (0.98-1.20)</t>
+  </si>
+  <si>
+    <t>1.02 (0.95-1.09)</t>
+  </si>
+  <si>
+    <t>0.95 (0.85-1.05)</t>
+  </si>
+  <si>
+    <t>1.03 (0.92-1.13)</t>
+  </si>
+  <si>
+    <t>1.11 (1.03-1.20)</t>
   </si>
   <si>
     <t>1.02 (0.91-1.12)</t>
   </si>
   <si>
-    <t>0.95 (0.87-1.02)</t>
-  </si>
-  <si>
-    <t>1.03 (0.93-1.13)</t>
-  </si>
-  <si>
-    <t>1.11 (1.04-1.18)</t>
-  </si>
-  <si>
-    <t>1.02 (0.92-1.11)</t>
-  </si>
-  <si>
-    <t>0.96 (0.83-1.08)</t>
+    <t>0.96 (0.83-1.09)</t>
+  </si>
+  <si>
+    <t>1.13 (1.03-1.22)</t>
+  </si>
+  <si>
+    <t>1.11 (1.04-1.19)</t>
   </si>
   <si>
     <t>1.13 (1.02-1.23)</t>
   </si>
   <si>
-    <t>1.11 (1.03-1.20)</t>
-  </si>
-  <si>
-    <t>1.12 (1.03-1.22)</t>
-  </si>
-  <si>
-    <t>1.14 (1.01-1.26)</t>
-  </si>
-  <si>
-    <t>1.13 (1.02-1.24)</t>
+    <t>1.14 (1.02-1.25)</t>
+  </si>
+  <si>
+    <t>1.13 (1.03-1.23)</t>
   </si>
   <si>
     <t>1.11 (0.98-1.24)</t>
@@ -254,49 +254,49 @@
     <t>1.14 (1.05-1.23)</t>
   </si>
   <si>
-    <t>1.08 (0.91-1.22)</t>
-  </si>
-  <si>
-    <t>1.10 (0.94-1.26)</t>
-  </si>
-  <si>
-    <t>1.11 (1.01-1.22)</t>
+    <t>1.08 (0.93-1.24)</t>
+  </si>
+  <si>
+    <t>1.10 (0.93-1.27)</t>
+  </si>
+  <si>
+    <t>1.11 (0.99-1.23)</t>
   </si>
   <si>
     <t>1.13 (0.98-1.28)</t>
   </si>
   <si>
-    <t>1.11 (0.99-1.22)</t>
+    <t>1.11 (1.00-1.22)</t>
   </si>
   <si>
     <t>1.08 (0.93-1.25)</t>
   </si>
   <si>
-    <t>1.07 (0.87-1.28)</t>
-  </si>
-  <si>
-    <t>1.13 (0.97-1.30)</t>
-  </si>
-  <si>
-    <t>1.14 (0.99-1.29)</t>
-  </si>
-  <si>
-    <t>1.11 (1.00-1.23)</t>
-  </si>
-  <si>
-    <t>1.05 (0.92-1.18)</t>
+    <t>1.08 (0.88-1.28)</t>
+  </si>
+  <si>
+    <t>1.13 (0.97-1.29)</t>
+  </si>
+  <si>
+    <t>1.14 (0.98-1.32)</t>
+  </si>
+  <si>
+    <t>1.05 (0.93-1.18)</t>
   </si>
   <si>
     <t>1.16 (1.04-1.27)</t>
   </si>
   <si>
-    <t>1.06 (0.93-1.17)</t>
-  </si>
-  <si>
-    <t>0.94 (0.83-1.04)</t>
-  </si>
-  <si>
-    <t>0.92 (0.82-1.02)</t>
+    <t>1.06 (0.96-1.16)</t>
+  </si>
+  <si>
+    <t>0.94 (0.84-1.03)</t>
+  </si>
+  <si>
+    <t>0.94 (0.84-1.04)</t>
+  </si>
+  <si>
+    <t>0.92 (0.82-1.01)</t>
   </si>
   <si>
     <t>38.42</t>
@@ -332,7 +332,7 @@
     <t>43.90</t>
   </si>
   <si>
-    <t>19.65</t>
+    <t>19.66</t>
   </si>
   <si>
     <t>23.91</t>
@@ -368,10 +368,10 @@
     <t>48.29</t>
   </si>
   <si>
-    <t>43.32</t>
-  </si>
-  <si>
-    <t>31.94</t>
+    <t>43.33</t>
+  </si>
+  <si>
+    <t>31.95</t>
   </si>
   <si>
     <t>41.97</t>
@@ -467,7 +467,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>6.3 (5.8-6.7)</t>
+    <t>6.2 (5.8-6.7)</t>
   </si>
   <si>
     <t>5.4 (4.6-6.2)</t>
@@ -491,7 +491,7 @@
     <t>10.8 (3.0-25.4)</t>
   </si>
   <si>
-    <t>7.1 (0.2-33.9)</t>
+    <t>6.2 (0.2-30.2)</t>
   </si>
   <si>
     <t>6.8 (5.9-7.7)</t>
@@ -506,7 +506,7 @@
     <t>5.4 (3.8-7.4)</t>
   </si>
   <si>
-    <t>9.1 (7.0-11.5)</t>
+    <t>9.0 (7.0-11.5)</t>
   </si>
   <si>
     <t>5.8 (3.9-8.3)</t>
@@ -527,7 +527,7 @@
     <t>10.0 (0.3-44.5)</t>
   </si>
   <si>
-    <t>6.3 (4.1-9.1)</t>
+    <t>6.2 (4.1-9.1)</t>
   </si>
   <si>
     <t>7.6 (4.8-11.4)</t>
@@ -563,10 +563,10 @@
     <t>94.5 (93.1-95.7)</t>
   </si>
   <si>
-    <t>94.7 (92.8-96.2)</t>
-  </si>
-  <si>
-    <t>89.7 (88.1-91.1)</t>
+    <t>94.7 (92.9-96.2)</t>
+  </si>
+  <si>
+    <t>89.7 (88.2-91.1)</t>
   </si>
   <si>
     <t>90.4 (88.9-91.8)</t>
@@ -575,10 +575,10 @@
     <t>56.8 (39.5-72.9)</t>
   </si>
   <si>
-    <t>92.9 (66.1-99.8)</t>
-  </si>
-  <si>
-    <t>91.6 (90.6-92.6)</t>
+    <t>93.8 (69.8-99.8)</t>
+  </si>
+  <si>
+    <t>91.7 (90.6-92.6)</t>
   </si>
   <si>
     <t>93.1 (91.2-94.7)</t>
@@ -626,16 +626,16 @@
     <t>80.0 (44.4-97.5)</t>
   </si>
   <si>
-    <t>92.0 (88.9-94.4)</t>
-  </si>
-  <si>
-    <t>92.0 (88.1-94.9)</t>
+    <t>92.0 (88.9-94.5)</t>
+  </si>
+  <si>
+    <t>92.1 (88.2-95.0)</t>
   </si>
   <si>
     <t>86.3 (73.7-94.3)</t>
   </si>
   <si>
-    <t>91.1 (89.4-92.6)</t>
+    <t>91.2 (89.5-92.7)</t>
   </si>
   <si>
     <t>93.8 (91.7-95.5)</t>
@@ -722,7 +722,7 @@
     <t>1.8 (0.9-3.2)</t>
   </si>
   <si>
-    <t>0.1 (0.0-0.4)</t>
+    <t>0.1 (0.0-0.3)</t>
   </si>
   <si>
     <t>0.1 (0.0-0.7)</t>
@@ -889,7 +889,7 @@
         <v>8670300.0</v>
       </c>
       <c r="C2" t="n">
-        <v>864898.0</v>
+        <v>864883.0</v>
       </c>
       <c r="D2" t="n">
         <v>20663.0</v>
@@ -898,7 +898,7 @@
         <v>63</v>
       </c>
       <c r="F2" t="n">
-        <v>2565679.0</v>
+        <v>2565701.0</v>
       </c>
       <c r="G2" t="n">
         <v>29592.0</v>
@@ -907,7 +907,7 @@
         <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>11272.0</v>
+        <v>11287.0</v>
       </c>
       <c r="J2" t="s">
         <v>127</v>
@@ -955,7 +955,7 @@
         <v>150</v>
       </c>
       <c r="Y2" t="n">
-        <v>10360.0</v>
+        <v>10375.0</v>
       </c>
       <c r="Z2" t="s">
         <v>178</v>
@@ -984,7 +984,7 @@
         <v>1845502.0</v>
       </c>
       <c r="C3" t="n">
-        <v>249577.0</v>
+        <v>249576.0</v>
       </c>
       <c r="D3" t="n">
         <v>28013.0</v>
@@ -993,16 +993,16 @@
         <v>64</v>
       </c>
       <c r="F3" t="n">
-        <v>613505.0</v>
+        <v>613517.0</v>
       </c>
       <c r="G3" t="n">
-        <v>33243.0</v>
+        <v>33244.0</v>
       </c>
       <c r="H3" t="s">
         <v>96</v>
       </c>
       <c r="I3" t="n">
-        <v>3310.0</v>
+        <v>3316.0</v>
       </c>
       <c r="J3" t="s">
         <v>127</v>
@@ -1050,7 +1050,7 @@
         <v>150</v>
       </c>
       <c r="Y3" t="n">
-        <v>3100.0</v>
+        <v>3106.0</v>
       </c>
       <c r="Z3" t="s">
         <v>179</v>
@@ -1079,19 +1079,19 @@
         <v>506343.0</v>
       </c>
       <c r="C4" t="n">
-        <v>73708.0</v>
+        <v>73703.0</v>
       </c>
       <c r="D4" t="n">
-        <v>30154.0</v>
+        <v>30152.0</v>
       </c>
       <c r="E4" t="s">
         <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>194683.0</v>
+        <v>194681.0</v>
       </c>
       <c r="G4" t="n">
-        <v>38449.0</v>
+        <v>38448.0</v>
       </c>
       <c r="H4" t="s">
         <v>97</v>
@@ -1174,10 +1174,10 @@
         <v>175894.0</v>
       </c>
       <c r="C5" t="n">
-        <v>24063.0</v>
+        <v>24062.0</v>
       </c>
       <c r="D5" t="n">
-        <v>28338.0</v>
+        <v>28337.0</v>
       </c>
       <c r="E5" t="s">
         <v>66</v>
@@ -1269,19 +1269,19 @@
         <v>814762.0</v>
       </c>
       <c r="C6" t="n">
-        <v>105068.0</v>
+        <v>105072.0</v>
       </c>
       <c r="D6" t="n">
-        <v>26712.0</v>
+        <v>26713.0</v>
       </c>
       <c r="E6" t="s">
         <v>67</v>
       </c>
       <c r="F6" t="n">
-        <v>253019.0</v>
+        <v>253031.0</v>
       </c>
       <c r="G6" t="n">
-        <v>31054.0</v>
+        <v>31056.0</v>
       </c>
       <c r="H6" t="s">
         <v>99</v>
@@ -1364,25 +1364,25 @@
         <v>348503.0</v>
       </c>
       <c r="C7" t="n">
-        <v>46738.0</v>
+        <v>46739.0</v>
       </c>
       <c r="D7" t="n">
-        <v>27780.0</v>
+        <v>27781.0</v>
       </c>
       <c r="E7" t="s">
         <v>68</v>
       </c>
       <c r="F7" t="n">
-        <v>104075.0</v>
+        <v>104077.0</v>
       </c>
       <c r="G7" t="n">
-        <v>29863.0</v>
+        <v>29864.0</v>
       </c>
       <c r="H7" t="s">
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>752.0</v>
+        <v>758.0</v>
       </c>
       <c r="J7" t="s">
         <v>131</v>
@@ -1430,7 +1430,7 @@
         <v>150</v>
       </c>
       <c r="Y7" t="n">
-        <v>712.0</v>
+        <v>718.0</v>
       </c>
       <c r="Z7" t="s">
         <v>183</v>
@@ -1459,16 +1459,16 @@
         <v>1442337.0</v>
       </c>
       <c r="C8" t="n">
-        <v>141786.0</v>
+        <v>141783.0</v>
       </c>
       <c r="D8" t="n">
-        <v>20363.0</v>
+        <v>20362.0</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
       <c r="F8" t="n">
-        <v>442655.0</v>
+        <v>442659.0</v>
       </c>
       <c r="G8" t="n">
         <v>30690.0</v>
@@ -1477,7 +1477,7 @@
         <v>101</v>
       </c>
       <c r="I8" t="n">
-        <v>1653.0</v>
+        <v>1655.0</v>
       </c>
       <c r="J8" t="s">
         <v>130</v>
@@ -1525,7 +1525,7 @@
         <v>150</v>
       </c>
       <c r="Y8" t="n">
-        <v>1483.0</v>
+        <v>1485.0</v>
       </c>
       <c r="Z8" t="s">
         <v>184</v>
@@ -1554,7 +1554,7 @@
         <v>1043132.0</v>
       </c>
       <c r="C9" t="n">
-        <v>89624.0</v>
+        <v>89622.0</v>
       </c>
       <c r="D9" t="n">
         <v>17797.0</v>
@@ -1563,7 +1563,7 @@
         <v>70</v>
       </c>
       <c r="F9" t="n">
-        <v>327184.0</v>
+        <v>327188.0</v>
       </c>
       <c r="G9" t="n">
         <v>31366.0</v>
@@ -1649,7 +1649,7 @@
         <v>325496.0</v>
       </c>
       <c r="C10" t="n">
-        <v>42955.0</v>
+        <v>42954.0</v>
       </c>
       <c r="D10" t="n">
         <v>27336.0</v>
@@ -1762,7 +1762,7 @@
         <v>99</v>
       </c>
       <c r="I11" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="J11" t="s">
         <v>134</v>
@@ -1810,7 +1810,7 @@
         <v>150</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="Z11" t="s">
         <v>187</v>
@@ -1839,7 +1839,7 @@
         <v>1459238.0</v>
       </c>
       <c r="C12" t="n">
-        <v>121687.0</v>
+        <v>121685.0</v>
       </c>
       <c r="D12" t="n">
         <v>17274.0</v>
@@ -1848,7 +1848,7 @@
         <v>73</v>
       </c>
       <c r="F12" t="n">
-        <v>471272.0</v>
+        <v>471276.0</v>
       </c>
       <c r="G12" t="n">
         <v>32296.0</v>
@@ -1857,7 +1857,7 @@
         <v>104</v>
       </c>
       <c r="I12" t="n">
-        <v>2922.0</v>
+        <v>2925.0</v>
       </c>
       <c r="J12" t="s">
         <v>135</v>
@@ -1905,7 +1905,7 @@
         <v>150</v>
       </c>
       <c r="Y12" t="n">
-        <v>2678.0</v>
+        <v>2681.0</v>
       </c>
       <c r="Z12" t="s">
         <v>188</v>
@@ -1934,7 +1934,7 @@
         <v>694072.0</v>
       </c>
       <c r="C13" t="n">
-        <v>54408.0</v>
+        <v>54407.0</v>
       </c>
       <c r="D13" t="n">
         <v>16238.0</v>
@@ -1943,16 +1943,16 @@
         <v>74</v>
       </c>
       <c r="F13" t="n">
-        <v>143247.0</v>
+        <v>143244.0</v>
       </c>
       <c r="G13" t="n">
-        <v>20639.0</v>
+        <v>20638.0</v>
       </c>
       <c r="H13" t="s">
         <v>105</v>
       </c>
       <c r="I13" t="n">
-        <v>826.0</v>
+        <v>827.0</v>
       </c>
       <c r="J13" t="s">
         <v>136</v>
@@ -2000,7 +2000,7 @@
         <v>150</v>
       </c>
       <c r="Y13" t="n">
-        <v>769.0</v>
+        <v>770.0</v>
       </c>
       <c r="Z13" t="s">
         <v>189</v>
@@ -2038,16 +2038,16 @@
         <v>75</v>
       </c>
       <c r="F14" t="n">
-        <v>137879.0</v>
+        <v>137885.0</v>
       </c>
       <c r="G14" t="n">
-        <v>47386.0</v>
+        <v>47388.0</v>
       </c>
       <c r="H14" t="s">
         <v>106</v>
       </c>
       <c r="I14" t="n">
-        <v>772.0</v>
+        <v>773.0</v>
       </c>
       <c r="J14" t="s">
         <v>137</v>
@@ -2095,7 +2095,7 @@
         <v>150</v>
       </c>
       <c r="Y14" t="n">
-        <v>697.0</v>
+        <v>698.0</v>
       </c>
       <c r="Z14" t="s">
         <v>190</v>
@@ -2133,7 +2133,7 @@
         <v>76</v>
       </c>
       <c r="F15" t="n">
-        <v>85831.0</v>
+        <v>85832.0</v>
       </c>
       <c r="G15" t="n">
         <v>43628.0</v>
@@ -2219,10 +2219,10 @@
         <v>277462.0</v>
       </c>
       <c r="C16" t="n">
-        <v>24347.0</v>
+        <v>24346.0</v>
       </c>
       <c r="D16" t="n">
-        <v>18177.0</v>
+        <v>18176.0</v>
       </c>
       <c r="E16" t="s">
         <v>77</v>
@@ -2237,7 +2237,7 @@
         <v>108</v>
       </c>
       <c r="I16" t="n">
-        <v>662.0</v>
+        <v>663.0</v>
       </c>
       <c r="J16" t="s">
         <v>139</v>
@@ -2285,7 +2285,7 @@
         <v>150</v>
       </c>
       <c r="Y16" t="n">
-        <v>595.0</v>
+        <v>596.0</v>
       </c>
       <c r="Z16" t="s">
         <v>192</v>
@@ -2314,7 +2314,7 @@
         <v>825745.0</v>
       </c>
       <c r="C17" t="n">
-        <v>77373.0</v>
+        <v>77371.0</v>
       </c>
       <c r="D17" t="n">
         <v>19409.0</v>
@@ -2323,10 +2323,10 @@
         <v>78</v>
       </c>
       <c r="F17" t="n">
-        <v>220271.0</v>
+        <v>220273.0</v>
       </c>
       <c r="G17" t="n">
-        <v>26675.0</v>
+        <v>26676.0</v>
       </c>
       <c r="H17" t="s">
         <v>109</v>
@@ -2409,10 +2409,10 @@
         <v>416347.0</v>
       </c>
       <c r="C18" t="n">
-        <v>40500.0</v>
+        <v>40498.0</v>
       </c>
       <c r="D18" t="n">
-        <v>20150.0</v>
+        <v>20149.0</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -2703,10 +2703,10 @@
         <v>82</v>
       </c>
       <c r="F21" t="n">
-        <v>34321.0</v>
+        <v>34322.0</v>
       </c>
       <c r="G21" t="n">
-        <v>21165.0</v>
+        <v>21166.0</v>
       </c>
       <c r="H21" t="s">
         <v>113</v>
@@ -2893,7 +2893,7 @@
         <v>84</v>
       </c>
       <c r="F23" t="n">
-        <v>34886.0</v>
+        <v>34887.0</v>
       </c>
       <c r="G23" t="n">
         <v>27087.0</v>
@@ -2979,7 +2979,7 @@
         <v>2546396.0</v>
       </c>
       <c r="C24" t="n">
-        <v>213691.0</v>
+        <v>213686.0</v>
       </c>
       <c r="D24" t="n">
         <v>17383.0</v>
@@ -2997,7 +2997,7 @@
         <v>116</v>
       </c>
       <c r="I24" t="n">
-        <v>2038.0</v>
+        <v>2042.0</v>
       </c>
       <c r="J24" t="s">
         <v>141</v>
@@ -3045,7 +3045,7 @@
         <v>150</v>
       </c>
       <c r="Y24" t="n">
-        <v>1860.0</v>
+        <v>1864.0</v>
       </c>
       <c r="Z24" t="s">
         <v>200</v>
@@ -3169,19 +3169,19 @@
         <v>55309.0</v>
       </c>
       <c r="C26" t="n">
-        <v>3761.0</v>
+        <v>3762.0</v>
       </c>
       <c r="D26" t="n">
-        <v>14086.0</v>
+        <v>14089.0</v>
       </c>
       <c r="E26" t="s">
         <v>87</v>
       </c>
       <c r="F26" t="n">
-        <v>9588.0</v>
+        <v>9589.0</v>
       </c>
       <c r="G26" t="n">
-        <v>17335.0</v>
+        <v>17337.0</v>
       </c>
       <c r="H26" t="s">
         <v>118</v>
@@ -3264,19 +3264,19 @@
         <v>40851.0</v>
       </c>
       <c r="C27" t="n">
-        <v>3490.0</v>
+        <v>3491.0</v>
       </c>
       <c r="D27" t="n">
-        <v>17697.0</v>
+        <v>17702.0</v>
       </c>
       <c r="E27" t="s">
         <v>88</v>
       </c>
       <c r="F27" t="n">
-        <v>12545.0</v>
+        <v>12546.0</v>
       </c>
       <c r="G27" t="n">
-        <v>30709.0</v>
+        <v>30712.0</v>
       </c>
       <c r="H27" t="s">
         <v>119</v>
@@ -3359,16 +3359,16 @@
         <v>514504.0</v>
       </c>
       <c r="C28" t="n">
-        <v>39014.0</v>
+        <v>39012.0</v>
       </c>
       <c r="D28" t="n">
         <v>15707.0</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F28" t="n">
-        <v>104050.0</v>
+        <v>104049.0</v>
       </c>
       <c r="G28" t="n">
         <v>20223.0</v>
@@ -3377,7 +3377,7 @@
         <v>120</v>
       </c>
       <c r="I28" t="n">
-        <v>399.0</v>
+        <v>400.0</v>
       </c>
       <c r="J28" t="s">
         <v>141</v>
@@ -3425,7 +3425,7 @@
         <v>150</v>
       </c>
       <c r="Y28" t="n">
-        <v>367.0</v>
+        <v>368.0</v>
       </c>
       <c r="Z28" t="s">
         <v>204</v>
@@ -3460,7 +3460,7 @@
         <v>14888.0</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" t="n">
         <v>17247.0</v>
@@ -3472,7 +3472,7 @@
         <v>121</v>
       </c>
       <c r="I29" t="n">
-        <v>275.0</v>
+        <v>277.0</v>
       </c>
       <c r="J29" t="s">
         <v>145</v>
@@ -3520,7 +3520,7 @@
         <v>150</v>
       </c>
       <c r="Y29" t="n">
-        <v>253.0</v>
+        <v>255.0</v>
       </c>
       <c r="Z29" t="s">
         <v>205</v>
@@ -3549,16 +3549,16 @@
         <v>282909.0</v>
       </c>
       <c r="C30" t="n">
-        <v>22444.0</v>
+        <v>22445.0</v>
       </c>
       <c r="D30" t="n">
-        <v>16433.0</v>
+        <v>16434.0</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" t="n">
-        <v>66257.0</v>
+        <v>66258.0</v>
       </c>
       <c r="G30" t="n">
         <v>23420.0</v>
@@ -3644,25 +3644,25 @@
         <v>1553423.0</v>
       </c>
       <c r="C31" t="n">
-        <v>137884.0</v>
+        <v>137878.0</v>
       </c>
       <c r="D31" t="n">
-        <v>18386.0</v>
+        <v>18385.0</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" t="n">
-        <v>411603.0</v>
+        <v>411601.0</v>
       </c>
       <c r="G31" t="n">
-        <v>26497.0</v>
+        <v>26496.0</v>
       </c>
       <c r="H31" t="s">
         <v>123</v>
       </c>
       <c r="I31" t="n">
-        <v>1276.0</v>
+        <v>1277.0</v>
       </c>
       <c r="J31" t="s">
         <v>146</v>
@@ -3710,7 +3710,7 @@
         <v>150</v>
       </c>
       <c r="Y31" t="n">
-        <v>1163.0</v>
+        <v>1164.0</v>
       </c>
       <c r="Z31" t="s">
         <v>207</v>
@@ -3739,13 +3739,13 @@
         <v>551082.0</v>
       </c>
       <c r="C32" t="n">
-        <v>60784.0</v>
+        <v>60782.0</v>
       </c>
       <c r="D32" t="n">
-        <v>22848.0</v>
+        <v>22847.0</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" t="n">
         <v>194137.0</v>
@@ -3834,10 +3834,10 @@
         <v>200096.0</v>
       </c>
       <c r="C33" t="n">
-        <v>22483.0</v>
+        <v>22482.0</v>
       </c>
       <c r="D33" t="n">
-        <v>23275.0</v>
+        <v>23274.0</v>
       </c>
       <c r="E33" t="s">
         <v>93</v>
@@ -3929,7 +3929,7 @@
         <v>350986.0</v>
       </c>
       <c r="C34" t="n">
-        <v>38301.0</v>
+        <v>38300.0</v>
       </c>
       <c r="D34" t="n">
         <v>22604.0</v>
